--- a/койки.xlsx
+++ b/койки.xlsx
@@ -19,12 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
-    <t>ПИТ</t>
+    <t>Палата</t>
   </si>
   <si>
-    <t>Палата</t>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Койка</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Тест Т.И.</t>
+  </si>
+  <si>
+    <t>ДЦП</t>
+  </si>
+  <si>
+    <t>Терапия</t>
+  </si>
+  <si>
+    <t>Хирургия</t>
   </si>
 </sst>
 </file>
@@ -75,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -361,10 +383,17 @@
   <dimension ref="F27:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="27" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
@@ -373,9 +402,15 @@
       <c r="G27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -385,11 +420,21 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="F28" s="2">
+        <v>45351</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -399,11 +444,21 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="F29" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -413,11 +468,21 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="F30" s="2">
+        <v>45350</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -427,10 +492,18 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="F31" s="2">
+        <v>45351</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -441,10 +514,18 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="F32" s="2">
+        <v>45352</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -455,7 +536,9 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
+      <c r="F33" s="2">
+        <v>45353</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -469,7 +552,9 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
+      <c r="F34" s="2">
+        <v>45354</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -483,7 +568,9 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
+      <c r="F35" s="2">
+        <v>45355</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -497,7 +584,9 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
+      <c r="F36" s="2">
+        <v>45356</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -511,7 +600,9 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
+      <c r="F37" s="2">
+        <v>45357</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -525,7 +616,9 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F38" s="1"/>
+      <c r="F38" s="2">
+        <v>45358</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -539,7 +632,9 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F39" s="1"/>
+      <c r="F39" s="2">
+        <v>45359</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -553,7 +648,9 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
+      <c r="F40" s="2">
+        <v>45360</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -567,7 +664,9 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F41" s="1"/>
+      <c r="F41" s="2">
+        <v>45361</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -581,7 +680,9 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F42" s="1"/>
+      <c r="F42" s="2">
+        <v>45362</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -595,7 +696,9 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
+      <c r="F43" s="2">
+        <v>45363</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
